--- a/создание карточки XLS/output_data_for_WB.xlsx
+++ b/создание карточки XLS/output_data_for_WB.xlsx
@@ -101,7 +101,7 @@
     <t xml:space="preserve">Россия</t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Термонаклейка%20Девушка%20волосы%20облако%20Тест2_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Термонаклейка%20Девушка%20волосы%20облако%20Тест2_2.jpg;</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Термонаклейка%20Девушка%20волосы%20облако%20Тест_1.jpg;</t>
   </si>
 </sst>
 </file>

--- a/создание карточки XLS/output_data_for_WB.xlsx
+++ b/создание карточки XLS/output_data_for_WB.xlsx
@@ -101,7 +101,7 @@
     <t xml:space="preserve">Россия</t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Термонаклейка%20Девушка%20волосы%20облако%20Тест_1.jpg;</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/%D0%904/%D0%A2%D0%B5%D1%80%D0%BC%D0%BE%D0%BD%D0%B0%D0%BA%D0%BB%D0%B5%D0%B9%D0%BA%D0%B0%20%D0%94%D0%B5%D0%B2%D1%83%D1%88%D0%BA%D0%B0%20%D0%B2%D0%BE%D0%BB%D0%BE%D1%81%D1%8B%20%D0%BE%D0%B1%D0%BB%D0%B0%D0%BA%D0%BE%20%D0%A2%D0%B5%D1%81%D1%82_5.jpg</t>
   </si>
 </sst>
 </file>
@@ -194,7 +194,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -205,10 +205,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -338,7 +334,7 @@
       <c r="R2" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="0" t="s">
         <v>26</v>
       </c>
     </row>
